--- a/example_results/beach_soccer_example_table_1_tl_all.xlsx
+++ b/example_results/beach_soccer_example_table_1_tl_all.xlsx
@@ -173,7 +173,7 @@
     <t xml:space="preserve"> (4.5, 149.75)</t>
   </si>
   <si>
-    <t xml:space="preserve"> [232.47, 3446.49]</t>
+    <t xml:space="preserve"> [232.47, 3416.97]</t>
   </si>
   <si>
     <t xml:space="preserve">Tendinopathy</t>
